--- a/SOFTWARE/Thermal/FR/accuracynextel.xlsx
+++ b/SOFTWARE/Thermal/FR/accuracynextel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>NEXTEL</t>
   </si>
@@ -53,16 +53,36 @@
   <si>
     <t>Diff</t>
   </si>
+  <si>
+    <t>log(dt)</t>
+  </si>
+  <si>
+    <r>
+      <t>log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϵ)</t>
+    </r>
+  </si>
+  <si>
+    <t>log(dx)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +96,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,11 +125,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +142,347 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.3216946459464327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3214462116137065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3189695578704463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2949465303957477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1081378514724598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6185214509565571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="76457472"/>
+        <c:axId val="76460800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76457472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76460800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76460800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76457472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$25:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.602059991327963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.397940008672037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.43093987581000304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3027180630099469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1081378514724598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6158363304308838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.7238605375420866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="79662080"/>
+        <c:axId val="84476672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79662080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84476672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="84476672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79662080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,25 +772,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +799,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -440,7 +807,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -448,7 +815,15 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -473,170 +848,230 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>12000</v>
+        <v>1200000</v>
       </c>
       <c r="C7">
         <v>400</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="E7">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F7" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1070.1220686291399</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="F7" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1070.1543377236701</v>
+      </c>
+      <c r="H7" s="2">
         <f>(G7-F7)/F7</f>
-        <v>-4.7976707701618037E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-4.7676608498171793E-3</v>
+      </c>
+      <c r="J7">
+        <f>LOG10(D7)</f>
+        <v>-4</v>
+      </c>
+      <c r="K7">
+        <f>LOG10(ABS(H7))</f>
+        <v>-2.3216946459464327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1200</v>
+        <v>120000</v>
       </c>
       <c r="C8">
         <v>400</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F8" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1069.8286668885901</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1070.1514042728199</v>
+      </c>
+      <c r="H8" s="2">
         <f>(G8-F8)/F8</f>
-        <v>-5.0705313195842901E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-4.7703889284208571E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J12" si="0">LOG10(D8)</f>
+        <v>-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K12" si="1">LOG10(ABS(H8))</f>
+        <v>-2.3214462116137065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F9" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1066.89820932048</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" ref="H9:H12" si="0">(G9-F9)/F9</f>
-        <v>-7.7958262022778044E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1070.1220686291399</v>
+      </c>
+      <c r="H9" s="2">
+        <f>(G9-F9)/F9</f>
+        <v>-4.7976707701618037E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-2.3189695578704463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="C10">
         <v>400</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F10" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1049.39875433815</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F10" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1069.8286668885901</v>
+      </c>
+      <c r="H10" s="2">
+        <f>(G10-F10)/F10</f>
+        <v>-5.0705313195842901E-3</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>-2.4070136273256271E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-2.2949465303957477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>120000</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
       <c r="D11">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F11" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1070.1514042728199</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1066.89820932048</v>
+      </c>
+      <c r="H11" s="2">
+        <f>(G11-F11)/F11</f>
+        <v>-7.7958262022778044E-3</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>-4.7703889284208571E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-2.1081378514724598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>1200000</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>400</v>
       </c>
       <c r="D12">
-        <v>1E-4</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F12" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1070.1543377236701</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F12" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1049.39875433815</v>
+      </c>
+      <c r="H12" s="2">
+        <f>(G12-F12)/F12</f>
+        <v>-2.4070136273256271E-2</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>-4.7676608498171793E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-1.6185214509565571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>LN((G10-G9)/(G9-G8))/LN(10)</f>
+        <v>1.0000670639768601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -652,18 +1087,22 @@
       <c r="E14">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F14" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G14" s="1">
         <v>1070.1220686291399</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f>(G14-F14)/F14</f>
         <v>-4.7976707701618037E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f>LN((G11-G10)/(G10-G9))/LN(10)</f>
+        <v>0.99947275146334968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -679,18 +1118,22 @@
       <c r="E15">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F15" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G15" s="1">
         <v>1074.7347256329399</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f>(G15-F15)/F15</f>
         <v>-5.0794800984092585E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f>LN((G12-G11)/(G11-G10))/LN(10)</f>
+        <v>0.77608908551877187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -706,18 +1149,18 @@
       <c r="E16">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F16" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G16" s="1">
         <v>1024.95299122909</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" ref="H16:H17" si="1">(G16-F16)/F16</f>
+      <c r="H16" s="2">
+        <f t="shared" ref="H16:H22" si="2">(G16-F16)/F16</f>
         <v>-4.6804440236450737E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -733,18 +1176,18 @@
       <c r="E17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="2">
-        <v>1075.2809124324299</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G17" s="1">
         <v>679.31694249933298</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="1"/>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
         <v>-0.36824234984081805</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -766,8 +1209,12 @@
       <c r="G19" s="1">
         <v>679.073803875566</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.36846846621743723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -789,8 +1236,12 @@
       <c r="G20" s="1">
         <v>1024.65998911419</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.7076929138199379E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -812,8 +1263,12 @@
       <c r="G21" s="1">
         <v>1069.8286668885901</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.0705313195842901E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -835,14 +1290,206 @@
       <c r="G22" s="1">
         <v>1074.4421044086</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.8008268735318053E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G24" s="1">
+        <v>676.63982321654498</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24:H28" si="3">(G24-F24)/F24</f>
+        <v>-0.37073204276834526</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1021.7254376739</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.9806031279193974E-2</v>
+      </c>
+      <c r="J25">
+        <f>LOG10(E24^2)</f>
+        <v>-4.6020599913279625</v>
+      </c>
+      <c r="K25">
+        <f>LOG10(ABS(H24))</f>
+        <v>-0.43093987581000304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+      <c r="C26">
+        <v>400</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1066.89820932048</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.7958262022778044E-3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J29" si="4">LOG10(E25^2)</f>
+        <v>-6.6020599913279625</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:K29" si="5">LOG10(ABS(H25))</f>
+        <v>-1.3027180630099469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>4000</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1072.6766448425601</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.4219416152180873E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>-8.6020599913279625</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>-2.1081378514724598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>5</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1075.2809124324299</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1073.2501393462701</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.8885977261196944E-3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>-10.602059991327963</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>-2.6158363304308838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>-11.397940008672037</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>-2.7238605375420866</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
